--- a/File_for_Import/Reports/Расчетные параметры ГПА3.xlsx
+++ b/File_for_Import/Reports/Расчетные параметры ГПА3.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
@@ -85,7 +85,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -455,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,9 +469,10 @@
     <col hidden="1" width="13" customWidth="1" min="1" max="1"/>
     <col hidden="1" width="13" customWidth="1" min="2" max="2"/>
     <col hidden="1" width="13" customWidth="1" min="3" max="3"/>
-    <col width="100" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="105" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1">
@@ -517,7 +521,7 @@
         <v/>
       </c>
       <c r="G3" s="4">
-        <f>"Ед. измерения"</f>
+        <f>"Ед. изм."</f>
         <v/>
       </c>
     </row>
@@ -538,7 +542,7 @@
         <f>"1"</f>
         <v/>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <f>"Частота вращения ротора КВД  "</f>
         <v/>
       </c>
@@ -568,7 +572,7 @@
         <f>"2"</f>
         <v/>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <f>"Частота вращения ротора КНД  "</f>
         <v/>
       </c>
@@ -598,7 +602,7 @@
         <f>"3"</f>
         <v/>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <f>"Частота вращения СТ  "</f>
         <v/>
       </c>
@@ -628,7 +632,7 @@
         <f>"4"</f>
         <v/>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <f>"Запас до нижнего ограничения по ПЗ  "</f>
         <v/>
       </c>
@@ -658,7 +662,7 @@
         <f>"5"</f>
         <v/>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <f>"Запас до верхнего ограничения ограничения по Рвых  "</f>
         <v/>
       </c>
@@ -688,7 +692,7 @@
         <f>"6"</f>
         <v/>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <f>"Запас до верхнего ограничения ограничения по ст.сж.  "</f>
         <v/>
       </c>
@@ -718,7 +722,7 @@
         <f>"7"</f>
         <v/>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <f>"Относительные обороты СТ  "</f>
         <v/>
       </c>
@@ -748,7 +752,7 @@
         <f>"8"</f>
         <v/>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <f>"Мгновенный расход газа через нагнетатель  "</f>
         <v/>
       </c>
@@ -778,7 +782,7 @@
         <f>"9"</f>
         <v/>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <f>"Приведенная частота вращения ротора КВД  "</f>
         <v/>
       </c>
@@ -808,7 +812,7 @@
         <f>"10"</f>
         <v/>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <f>"Температура за турбиной  "</f>
         <v/>
       </c>
@@ -838,7 +842,7 @@
         <f>"11"</f>
         <v/>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <f>"Температура за турбиной на запуске  "</f>
         <v/>
       </c>
@@ -868,7 +872,7 @@
         <f>"12"</f>
         <v/>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <f>"ВНА1. Положение  "</f>
         <v/>
       </c>
@@ -898,7 +902,7 @@
         <f>"13"</f>
         <v/>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <f>"ВНА2. Положение  "</f>
         <v/>
       </c>
@@ -928,7 +932,7 @@
         <f>"14"</f>
         <v/>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <f>"Положение ДГ  "</f>
         <v/>
       </c>
@@ -958,7 +962,7 @@
         <f>"15"</f>
         <v/>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <f>"Степень сжатия  "</f>
         <v/>
       </c>
@@ -988,7 +992,7 @@
         <f>"16"</f>
         <v/>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <f>"Полное давление воздуха за компрессором  "</f>
         <v/>
       </c>
@@ -1018,7 +1022,7 @@
         <f>"17"</f>
         <v/>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <f>"Помпажный запас  "</f>
         <v/>
       </c>
@@ -1031,79 +1035,79 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="35" customHeight="1">
-      <c r="E23" s="7">
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="5">
+        <f>CONCATENATE($A$2, $A$1, C21, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B21" s="5">
+        <f>CONCATENATE($A$2, $A$1, C21, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C21" s="5">
+        <f>"AE.AE_Tst"</f>
+        <v/>
+      </c>
+      <c r="D21" s="6">
+        <f>"18"</f>
+        <v/>
+      </c>
+      <c r="E21" s="7">
+        <f>"Температура за СТ  "</f>
+        <v/>
+      </c>
+      <c r="F21" s="6">
+        <f>CurrAttrValue(B21, 0)</f>
+        <v/>
+      </c>
+      <c r="G21" s="6">
+        <f>CurrAttrValue(A21, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1">
+      <c r="E24" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="40" customHeight="1">
-      <c r="E24" s="1">
+    <row r="25" ht="40" customHeight="1">
+      <c r="E25" s="1">
         <f>"Срез значений расчётных параметров ГПА3 на "</f>
         <v/>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="D26" s="4">
+    <row r="27" ht="20" customHeight="1">
+      <c r="D27" s="4">
         <f>"№"</f>
         <v/>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <f>"Наименование параметра  "</f>
         <v/>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <f>"Значение"</f>
         <v/>
       </c>
-      <c r="G26" s="4">
-        <f>"Ед. измерения"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="5">
-        <f>CONCATENATE($A$2, $A$1, C27, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B27" s="5">
-        <f>CONCATENATE($A$2, $A$1, C27, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C27" s="5">
-        <f>"AE.AE_Tst"</f>
-        <v/>
-      </c>
-      <c r="D27" s="6">
-        <f>"18"</f>
-        <v/>
-      </c>
-      <c r="E27" s="5">
-        <f>"Температура за СТ  "</f>
-        <v/>
-      </c>
-      <c r="F27" s="6">
-        <f>CurrAttrValue(B27, 0)</f>
-        <v/>
-      </c>
-      <c r="G27" s="6">
-        <f>CurrAttrValue(A27, 0)</f>
+      <c r="G27" s="4">
+        <f>"Ед. изм"</f>
         <v/>
       </c>
     </row>
@@ -1124,7 +1128,7 @@
         <f>"19"</f>
         <v/>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="7">
         <f>"Задание частоты КВД  "</f>
         <v/>
       </c>
@@ -1154,7 +1158,7 @@
         <f>"20"</f>
         <v/>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="7">
         <f>"Массовый рассход топливного газа  "</f>
         <v/>
       </c>
@@ -1184,7 +1188,7 @@
         <f>"21"</f>
         <v/>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="7">
         <f>"Объемный рассход топливного газа  "</f>
         <v/>
       </c>
@@ -1214,7 +1218,7 @@
         <f>"22"</f>
         <v/>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="7">
         <f>"Коммерческая произв.ЦБН  "</f>
         <v/>
       </c>
@@ -1244,7 +1248,7 @@
         <f>"23"</f>
         <v/>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="7">
         <f>"Внутренняя мощность ЦБН  "</f>
         <v/>
       </c>
@@ -1274,7 +1278,7 @@
         <f>"24"</f>
         <v/>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="7">
         <f>"Мощность на валу ГТУ-ЦБН  "</f>
         <v/>
       </c>
@@ -1304,7 +1308,7 @@
         <f>"25"</f>
         <v/>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="7">
         <f>"Расход технологического газа за текущий час  "</f>
         <v/>
       </c>
@@ -1334,7 +1338,7 @@
         <f>"26"</f>
         <v/>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="7">
         <f>"Расход технологического газа за предыдущий час  "</f>
         <v/>
       </c>
@@ -1364,7 +1368,7 @@
         <f>"27"</f>
         <v/>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="7">
         <f>"Расход технологического газа за текущие сутки  "</f>
         <v/>
       </c>
@@ -1394,7 +1398,7 @@
         <f>"28"</f>
         <v/>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="7">
         <f>"Расход технологического газа за предыдущие сутки  "</f>
         <v/>
       </c>
@@ -1424,7 +1428,7 @@
         <f>"29"</f>
         <v/>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="7">
         <f>"Расход технологического газа за текущий месяц  "</f>
         <v/>
       </c>
@@ -1454,7 +1458,7 @@
         <f>"30"</f>
         <v/>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="7">
         <f>"Расход технологического газа за предыдущий месяц  "</f>
         <v/>
       </c>
@@ -1484,7 +1488,7 @@
         <f>"31"</f>
         <v/>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="7">
         <f>"Расход технологического газа за текущий год  "</f>
         <v/>
       </c>
@@ -1514,7 +1518,7 @@
         <f>"32"</f>
         <v/>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="7">
         <f>"Расход технологического газа за предыдущий год  "</f>
         <v/>
       </c>
@@ -1544,7 +1548,7 @@
         <f>"33"</f>
         <v/>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="7">
         <f>"Расход топливного газа за текущий час  "</f>
         <v/>
       </c>
@@ -1574,7 +1578,7 @@
         <f>"34"</f>
         <v/>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="7">
         <f>"Расход топливного газа за предыдущий час  "</f>
         <v/>
       </c>
@@ -1587,109 +1591,109 @@
         <v/>
       </c>
     </row>
-    <row r="46" ht="35" customHeight="1">
-      <c r="E46" s="7">
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="5">
+        <f>CONCATENATE($A$2, $A$1, C44, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B44" s="5">
+        <f>CONCATENATE($A$2, $A$1, C44, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C44" s="5">
+        <f>"AE.AE_TGGAS_CD"</f>
+        <v/>
+      </c>
+      <c r="D44" s="6">
+        <f>"35"</f>
+        <v/>
+      </c>
+      <c r="E44" s="7">
+        <f>"Расход топливного газа за текущие сутки  "</f>
+        <v/>
+      </c>
+      <c r="F44" s="6">
+        <f>CurrAttrValue(B44, 0)</f>
+        <v/>
+      </c>
+      <c r="G44" s="6">
+        <f>CurrAttrValue(A44, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="5">
+        <f>CONCATENATE($A$2, $A$1, C45, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B45" s="5">
+        <f>CONCATENATE($A$2, $A$1, C45, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C45" s="5">
+        <f>"AE.AE_TGGAS_LD"</f>
+        <v/>
+      </c>
+      <c r="D45" s="6">
+        <f>"36"</f>
+        <v/>
+      </c>
+      <c r="E45" s="7">
+        <f>"Расход топливного газа за предыдущие сутки  "</f>
+        <v/>
+      </c>
+      <c r="F45" s="6">
+        <f>CurrAttrValue(B45, 0)</f>
+        <v/>
+      </c>
+      <c r="G45" s="6">
+        <f>CurrAttrValue(A45, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" ht="35" customHeight="1">
+      <c r="E48" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F46" s="7">
+      <c r="F48" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G46" s="7">
+      <c r="G48" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="47" ht="40" customHeight="1">
-      <c r="E47" s="1">
+    <row r="49" ht="40" customHeight="1">
+      <c r="E49" s="1">
         <f>"Срез значений расчётных параметров ГПА3 на "</f>
         <v/>
       </c>
-      <c r="F47" s="2">
+      <c r="F49" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G47" s="3">
+      <c r="G49" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
-    <row r="49" ht="20" customHeight="1">
-      <c r="D49" s="4">
+    <row r="51" ht="20" customHeight="1">
+      <c r="D51" s="4">
         <f>"№"</f>
         <v/>
       </c>
-      <c r="E49" s="4">
+      <c r="E51" s="4">
         <f>"Наименование параметра  "</f>
         <v/>
       </c>
-      <c r="F49" s="4">
+      <c r="F51" s="4">
         <f>"Значение"</f>
         <v/>
       </c>
-      <c r="G49" s="4">
-        <f>"Ед. измерения"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" ht="20" customHeight="1">
-      <c r="A50" s="5">
-        <f>CONCATENATE($A$2, $A$1, C50, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B50" s="5">
-        <f>CONCATENATE($A$2, $A$1, C50, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C50" s="5">
-        <f>"AE.AE_TGGAS_CD"</f>
-        <v/>
-      </c>
-      <c r="D50" s="6">
-        <f>"35"</f>
-        <v/>
-      </c>
-      <c r="E50" s="5">
-        <f>"Расход топливного газа за текущие сутки  "</f>
-        <v/>
-      </c>
-      <c r="F50" s="6">
-        <f>CurrAttrValue(B50, 0)</f>
-        <v/>
-      </c>
-      <c r="G50" s="6">
-        <f>CurrAttrValue(A50, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" ht="20" customHeight="1">
-      <c r="A51" s="5">
-        <f>CONCATENATE($A$2, $A$1, C51, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B51" s="5">
-        <f>CONCATENATE($A$2, $A$1, C51, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C51" s="5">
-        <f>"AE.AE_TGGAS_LD"</f>
-        <v/>
-      </c>
-      <c r="D51" s="6">
-        <f>"36"</f>
-        <v/>
-      </c>
-      <c r="E51" s="5">
-        <f>"Расход топливного газа за предыдущие сутки  "</f>
-        <v/>
-      </c>
-      <c r="F51" s="6">
-        <f>CurrAttrValue(B51, 0)</f>
-        <v/>
-      </c>
-      <c r="G51" s="6">
-        <f>CurrAttrValue(A51, 0)</f>
+      <c r="G51" s="4">
+        <f>"Ед. изм"</f>
         <v/>
       </c>
     </row>
@@ -1710,7 +1714,7 @@
         <f>"37"</f>
         <v/>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="7">
         <f>"Расход топливного газа за текущий месяц  "</f>
         <v/>
       </c>
@@ -1740,7 +1744,7 @@
         <f>"38"</f>
         <v/>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="7">
         <f>"Расход топливного газа за предыдущий месяц  "</f>
         <v/>
       </c>
@@ -1770,7 +1774,7 @@
         <f>"39"</f>
         <v/>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="7">
         <f>"Расход топливного газа за текущий год  "</f>
         <v/>
       </c>
@@ -1800,7 +1804,7 @@
         <f>"40"</f>
         <v/>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="7">
         <f>"Расход топливного газа за предыдущий год  "</f>
         <v/>
       </c>
@@ -1830,7 +1834,7 @@
         <f>"41"</f>
         <v/>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="7">
         <f>"Массовый расход технологического газа  "</f>
         <v/>
       </c>
@@ -1860,7 +1864,7 @@
         <f>"42"</f>
         <v/>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="7">
         <f>"Эффективный КПД ГТУ  "</f>
         <v/>
       </c>
@@ -1890,7 +1894,7 @@
         <f>"43"</f>
         <v/>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="7">
         <f>"Расход масла двигателя за час  "</f>
         <v/>
       </c>
@@ -1920,7 +1924,7 @@
         <f>"44"</f>
         <v/>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="7">
         <f>"Запас по частоте СТ до верхнего ограничения  "</f>
         <v/>
       </c>
@@ -1950,7 +1954,7 @@
         <f>"45"</f>
         <v/>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="7">
         <f>"Запас по частоте ТК до верхнего ограничения  "</f>
         <v/>
       </c>
@@ -1980,7 +1984,7 @@
         <f>"46"</f>
         <v/>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="7">
         <f>"Запас по частоте Тст до верхнего ограничения  "</f>
         <v/>
       </c>
@@ -2010,7 +2014,7 @@
         <f>"47"</f>
         <v/>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="7">
         <f>"Запас по частоте Р за КВД до верхнего ограничения  "</f>
         <v/>
       </c>
@@ -2040,7 +2044,7 @@
         <f>"48"</f>
         <v/>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="7">
         <f>"Запас по частоте Рг на выходе Н до верхнего ограничения  "</f>
         <v/>
       </c>
@@ -2070,7 +2074,7 @@
         <f>"49"</f>
         <v/>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="7">
         <f>"Запас по частоте степени сжатия до верхнего ограничения  "</f>
         <v/>
       </c>
@@ -2100,7 +2104,7 @@
         <f>"50"</f>
         <v/>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="7">
         <f>"Запас по частоте СТ до нижнего ограничения  "</f>
         <v/>
       </c>
@@ -2130,7 +2134,7 @@
         <f>"51"</f>
         <v/>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="7">
         <f>"Запас по частоте ТК до нижнего ограничения  "</f>
         <v/>
       </c>
@@ -2143,122 +2147,76 @@
         <v/>
       </c>
     </row>
-    <row r="69" ht="35" customHeight="1">
-      <c r="E69" s="7">
+    <row r="67" ht="20" customHeight="1">
+      <c r="A67" s="5">
+        <f>CONCATENATE($A$2, $A$1, C67, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B67" s="5">
+        <f>CONCATENATE($A$2, $A$1, C67, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C67" s="5">
+        <f>"AE.AE_PZ_DN_Z"</f>
+        <v/>
+      </c>
+      <c r="D67" s="6">
+        <f>"52"</f>
+        <v/>
+      </c>
+      <c r="E67" s="7">
+        <f>"Запас по ПЗ до нижнего ограничения  "</f>
+        <v/>
+      </c>
+      <c r="F67" s="6">
+        <f>CurrAttrValue(B67, 0)</f>
+        <v/>
+      </c>
+      <c r="G67" s="6">
+        <f>CurrAttrValue(A67, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1">
+      <c r="A68" s="5">
+        <f>CONCATENATE($A$2, $A$1, C68, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B68" s="5">
+        <f>CONCATENATE($A$2, $A$1, C68, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C68" s="5">
+        <f>"AE.AE_Nst_set"</f>
+        <v/>
+      </c>
+      <c r="D68" s="6">
+        <f>"53"</f>
+        <v/>
+      </c>
+      <c r="E68" s="7">
+        <f>"Задание частоты СТ от регулятора (Рг. Qг. Ст.Сж.)  "</f>
+        <v/>
+      </c>
+      <c r="F68" s="6">
+        <f>CurrAttrValue(B68, 0)</f>
+        <v/>
+      </c>
+      <c r="G68" s="6">
+        <f>CurrAttrValue(A68, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" ht="35" customHeight="1">
+      <c r="E71" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F69" s="7">
+      <c r="F71" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G69" s="7">
-        <f>"подпись"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" ht="40" customHeight="1">
-      <c r="E70" s="1">
-        <f>"Срез значений расчётных параметров ГПА3 на "</f>
-        <v/>
-      </c>
-      <c r="F70" s="2">
-        <f>F1</f>
-        <v/>
-      </c>
-      <c r="G70" s="3">
-        <f>G1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" ht="20" customHeight="1">
-      <c r="D72" s="4">
-        <f>"№"</f>
-        <v/>
-      </c>
-      <c r="E72" s="4">
-        <f>"Наименование параметра  "</f>
-        <v/>
-      </c>
-      <c r="F72" s="4">
-        <f>"Значение"</f>
-        <v/>
-      </c>
-      <c r="G72" s="4">
-        <f>"Ед. измерения"</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" ht="20" customHeight="1">
-      <c r="A73" s="5">
-        <f>CONCATENATE($A$2, $A$1, C73, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B73" s="5">
-        <f>CONCATENATE($A$2, $A$1, C73, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C73" s="5">
-        <f>"AE.AE_PZ_DN_Z"</f>
-        <v/>
-      </c>
-      <c r="D73" s="6">
-        <f>"52"</f>
-        <v/>
-      </c>
-      <c r="E73" s="5">
-        <f>"Запас по ПЗ до нижнего ограничения  "</f>
-        <v/>
-      </c>
-      <c r="F73" s="6">
-        <f>CurrAttrValue(B73, 0)</f>
-        <v/>
-      </c>
-      <c r="G73" s="6">
-        <f>CurrAttrValue(A73, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" ht="20" customHeight="1">
-      <c r="A74" s="5">
-        <f>CONCATENATE($A$2, $A$1, C74, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B74" s="5">
-        <f>CONCATENATE($A$2, $A$1, C74, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C74" s="5">
-        <f>"AE.AE_Nst_set"</f>
-        <v/>
-      </c>
-      <c r="D74" s="6">
-        <f>"53"</f>
-        <v/>
-      </c>
-      <c r="E74" s="5">
-        <f>"Задание частоты СТ от регулятора (Рг. Qг. Ст.Сж.)  "</f>
-        <v/>
-      </c>
-      <c r="F74" s="6">
-        <f>CurrAttrValue(B74, 0)</f>
-        <v/>
-      </c>
-      <c r="G74" s="6">
-        <f>CurrAttrValue(A74, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" ht="35" customHeight="1">
-      <c r="E77" s="7">
-        <f>"должность"</f>
-        <v/>
-      </c>
-      <c r="F77" s="7">
-        <f>"ФИО"</f>
-        <v/>
-      </c>
-      <c r="G77" s="7">
+      <c r="G71" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
